--- a/IPEDSData_Cleaned.xlsx
+++ b/IPEDSData_Cleaned.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nwmissouri-my.sharepoint.com/personal/meghaan_nwmissouri_edu/Documents/44-688/M.S.-Data-Analytics-Capstone-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meghaan\Projects\M.S.-Data-Analytics-Capstone-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{771FA979-FAD1-49CB-8794-E6237B7E15B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3903BE5B-FF20-4032-9BA3-8B2C73ABC3F7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432FEFB0-3FD9-480F-A979-CB7290483927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPEDS Data 3-13-24" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>UnitID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Institution Name</t>
   </si>
@@ -938,19 +935,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -987,540 +983,498 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>133</v>
+      </c>
+      <c r="C2">
+        <v>115</v>
+      </c>
+      <c r="D2">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>259</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>252</v>
+      </c>
+      <c r="I2">
+        <v>199</v>
+      </c>
+      <c r="J2">
+        <v>202</v>
+      </c>
+      <c r="K2">
+        <v>168</v>
+      </c>
+      <c r="L2">
+        <v>277</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>177551</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>133</v>
-      </c>
-      <c r="D2">
-        <v>115</v>
-      </c>
-      <c r="E2">
-        <v>69</v>
-      </c>
-      <c r="F2">
+      <c r="B3">
+        <v>252</v>
+      </c>
+      <c r="C3">
+        <v>184</v>
+      </c>
+      <c r="D3">
+        <v>230</v>
+      </c>
+      <c r="E3">
+        <v>229</v>
+      </c>
+      <c r="F3">
+        <v>288</v>
+      </c>
+      <c r="G3">
+        <v>254</v>
+      </c>
+      <c r="H3">
+        <v>304</v>
+      </c>
+      <c r="I3">
+        <v>438</v>
+      </c>
+      <c r="J3">
+        <v>373</v>
+      </c>
+      <c r="K3">
+        <v>334</v>
+      </c>
+      <c r="L3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>423</v>
+      </c>
+      <c r="C4">
+        <v>444</v>
+      </c>
+      <c r="D4">
+        <v>553</v>
+      </c>
+      <c r="E4">
+        <v>542</v>
+      </c>
+      <c r="F4">
+        <v>735</v>
+      </c>
+      <c r="G4">
+        <v>789</v>
+      </c>
+      <c r="H4">
+        <v>799</v>
+      </c>
+      <c r="I4">
+        <v>740</v>
+      </c>
+      <c r="J4">
+        <v>668</v>
+      </c>
+      <c r="K4">
+        <v>665</v>
+      </c>
+      <c r="L4">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1816</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>259</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>252</v>
-      </c>
-      <c r="J2">
-        <v>199</v>
-      </c>
-      <c r="K2">
-        <v>202</v>
-      </c>
-      <c r="L2">
-        <v>168</v>
-      </c>
-      <c r="M2">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>177940</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>252</v>
-      </c>
-      <c r="D3">
-        <v>184</v>
-      </c>
-      <c r="E3">
-        <v>230</v>
-      </c>
-      <c r="F3">
-        <v>229</v>
-      </c>
-      <c r="G3">
-        <v>288</v>
-      </c>
-      <c r="H3">
-        <v>254</v>
-      </c>
-      <c r="I3">
-        <v>304</v>
-      </c>
-      <c r="J3">
-        <v>438</v>
-      </c>
-      <c r="K3">
-        <v>373</v>
-      </c>
-      <c r="L3">
-        <v>334</v>
-      </c>
-      <c r="M3">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>178341</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>423</v>
-      </c>
-      <c r="D4">
-        <v>444</v>
-      </c>
-      <c r="E4">
-        <v>553</v>
-      </c>
-      <c r="F4">
-        <v>542</v>
-      </c>
-      <c r="G4">
-        <v>735</v>
-      </c>
-      <c r="H4">
-        <v>789</v>
-      </c>
-      <c r="I4">
-        <v>799</v>
-      </c>
-      <c r="J4">
-        <v>740</v>
-      </c>
-      <c r="K4">
-        <v>668</v>
-      </c>
-      <c r="L4">
-        <v>665</v>
-      </c>
-      <c r="M4">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>179566</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>1816</v>
-      </c>
       <c r="D5">
-        <v>0</v>
+        <v>2082</v>
       </c>
       <c r="E5">
-        <v>2082</v>
+        <v>2243</v>
       </c>
       <c r="F5">
-        <v>2243</v>
+        <v>2619</v>
       </c>
       <c r="G5">
-        <v>2619</v>
+        <v>2791</v>
       </c>
       <c r="H5">
         <v>2791</v>
       </c>
       <c r="I5">
-        <v>2791</v>
+        <v>2811</v>
       </c>
       <c r="J5">
-        <v>2811</v>
+        <v>2497</v>
       </c>
       <c r="K5">
-        <v>2497</v>
+        <v>2381</v>
       </c>
       <c r="L5">
-        <v>2381</v>
-      </c>
-      <c r="M5">
         <v>2284</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>178411</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>870</v>
+      </c>
+      <c r="C6">
+        <v>928</v>
+      </c>
+      <c r="D6">
+        <v>895</v>
+      </c>
+      <c r="E6">
+        <v>941</v>
+      </c>
+      <c r="F6">
+        <v>1101</v>
+      </c>
+      <c r="G6">
+        <v>1195</v>
+      </c>
+      <c r="H6">
+        <v>1211</v>
+      </c>
+      <c r="I6">
+        <v>1202</v>
+      </c>
+      <c r="J6">
+        <v>1044</v>
+      </c>
+      <c r="K6">
+        <v>1000</v>
+      </c>
+      <c r="L6">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="B7">
+        <v>492</v>
+      </c>
+      <c r="C7">
+        <v>471</v>
+      </c>
+      <c r="D7">
+        <v>534</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>886</v>
+      </c>
+      <c r="G7">
+        <v>823</v>
+      </c>
+      <c r="H7">
+        <v>738</v>
+      </c>
+      <c r="I7">
+        <v>760</v>
+      </c>
+      <c r="J7">
+        <v>935</v>
+      </c>
+      <c r="K7">
+        <v>888</v>
+      </c>
+      <c r="L7">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>715</v>
+      </c>
+      <c r="C8">
+        <v>673</v>
+      </c>
+      <c r="D8">
+        <v>816</v>
+      </c>
+      <c r="E8">
         <v>870</v>
       </c>
-      <c r="D6">
-        <v>928</v>
-      </c>
-      <c r="E6">
-        <v>895</v>
-      </c>
-      <c r="F6">
-        <v>941</v>
-      </c>
-      <c r="G6">
-        <v>1101</v>
-      </c>
-      <c r="H6">
-        <v>1195</v>
-      </c>
-      <c r="I6">
-        <v>1211</v>
-      </c>
-      <c r="J6">
-        <v>1202</v>
-      </c>
-      <c r="K6">
-        <v>1044</v>
-      </c>
-      <c r="L6">
+      <c r="F8">
+        <v>889</v>
+      </c>
+      <c r="G8">
+        <v>781</v>
+      </c>
+      <c r="H8">
+        <v>897</v>
+      </c>
+      <c r="I8">
+        <v>890</v>
+      </c>
+      <c r="J8">
+        <v>864</v>
+      </c>
+      <c r="K8">
+        <v>908</v>
+      </c>
+      <c r="L8">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1069</v>
+      </c>
+      <c r="C9">
+        <v>1111</v>
+      </c>
+      <c r="D9">
+        <v>1146</v>
+      </c>
+      <c r="E9">
+        <v>1166</v>
+      </c>
+      <c r="F9">
+        <v>1226</v>
+      </c>
+      <c r="G9">
+        <v>1389</v>
+      </c>
+      <c r="H9">
+        <v>1403</v>
+      </c>
+      <c r="I9">
+        <v>1289</v>
+      </c>
+      <c r="J9">
+        <v>1440</v>
+      </c>
+      <c r="K9">
+        <v>1310</v>
+      </c>
+      <c r="L9">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>512</v>
+      </c>
+      <c r="C10">
+        <v>519</v>
+      </c>
+      <c r="D10">
+        <v>600</v>
+      </c>
+      <c r="E10">
+        <v>706</v>
+      </c>
+      <c r="F10">
+        <v>894</v>
+      </c>
+      <c r="G10">
+        <v>1029</v>
+      </c>
+      <c r="H10">
+        <v>986</v>
+      </c>
+      <c r="I10">
+        <v>932</v>
+      </c>
+      <c r="J10">
         <v>1000</v>
       </c>
-      <c r="M6">
-        <v>862</v>
+      <c r="K10">
+        <v>1043</v>
+      </c>
+      <c r="L10">
+        <v>977</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>178387</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>492</v>
-      </c>
-      <c r="D7">
-        <v>471</v>
-      </c>
-      <c r="E7">
-        <v>534</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>886</v>
-      </c>
-      <c r="H7">
-        <v>823</v>
-      </c>
-      <c r="I7">
-        <v>738</v>
-      </c>
-      <c r="J7">
-        <v>760</v>
-      </c>
-      <c r="K7">
-        <v>935</v>
-      </c>
-      <c r="L7">
-        <v>888</v>
-      </c>
-      <c r="M7">
-        <v>990</v>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>904</v>
+      </c>
+      <c r="C11">
+        <v>1007</v>
+      </c>
+      <c r="D11">
+        <v>949</v>
+      </c>
+      <c r="E11">
+        <v>1085</v>
+      </c>
+      <c r="F11">
+        <v>1264</v>
+      </c>
+      <c r="G11">
+        <v>1445</v>
+      </c>
+      <c r="H11">
+        <v>1407</v>
+      </c>
+      <c r="I11">
+        <v>1460</v>
+      </c>
+      <c r="J11">
+        <v>1505</v>
+      </c>
+      <c r="K11">
+        <v>1579</v>
+      </c>
+      <c r="L11">
+        <v>1597</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>178624</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>715</v>
-      </c>
-      <c r="D8">
-        <v>673</v>
-      </c>
-      <c r="E8">
-        <v>816</v>
-      </c>
-      <c r="F8">
-        <v>870</v>
-      </c>
-      <c r="G8">
-        <v>889</v>
-      </c>
-      <c r="H8">
-        <v>781</v>
-      </c>
-      <c r="I8">
-        <v>897</v>
-      </c>
-      <c r="J8">
-        <v>890</v>
-      </c>
-      <c r="K8">
-        <v>864</v>
-      </c>
-      <c r="L8">
-        <v>908</v>
-      </c>
-      <c r="M8">
-        <v>926</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>3465</v>
+      </c>
+      <c r="C12">
+        <v>3316</v>
+      </c>
+      <c r="D12">
+        <v>3789</v>
+      </c>
+      <c r="E12">
+        <v>3771</v>
+      </c>
+      <c r="F12">
+        <v>3158</v>
+      </c>
+      <c r="G12">
+        <v>2739</v>
+      </c>
+      <c r="H12">
+        <v>3140</v>
+      </c>
+      <c r="I12">
+        <v>3722</v>
+      </c>
+      <c r="J12">
+        <v>3949</v>
+      </c>
+      <c r="K12">
+        <v>3795</v>
+      </c>
+      <c r="L12">
+        <v>4096</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>179557</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>1069</v>
-      </c>
-      <c r="D9">
-        <v>1111</v>
-      </c>
-      <c r="E9">
-        <v>1146</v>
-      </c>
-      <c r="F9">
-        <v>1166</v>
-      </c>
-      <c r="G9">
-        <v>1226</v>
-      </c>
-      <c r="H9">
-        <v>1389</v>
-      </c>
-      <c r="I9">
-        <v>1403</v>
-      </c>
-      <c r="J9">
-        <v>1289</v>
-      </c>
-      <c r="K9">
-        <v>1440</v>
-      </c>
-      <c r="L9">
-        <v>1310</v>
-      </c>
-      <c r="M9">
-        <v>1485</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>805</v>
+      </c>
+      <c r="C13">
+        <v>808</v>
+      </c>
+      <c r="D13">
+        <v>749</v>
+      </c>
+      <c r="E13">
+        <v>805</v>
+      </c>
+      <c r="F13">
+        <v>830</v>
+      </c>
+      <c r="G13">
+        <v>907</v>
+      </c>
+      <c r="H13">
+        <v>887</v>
+      </c>
+      <c r="I13">
+        <v>761</v>
+      </c>
+      <c r="J13">
+        <v>773</v>
+      </c>
+      <c r="K13">
+        <v>771</v>
+      </c>
+      <c r="L13">
+        <v>844</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>178615</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>512</v>
-      </c>
-      <c r="D10">
-        <v>519</v>
-      </c>
-      <c r="E10">
-        <v>600</v>
-      </c>
-      <c r="F10">
-        <v>706</v>
-      </c>
-      <c r="G10">
-        <v>894</v>
-      </c>
-      <c r="H10">
-        <v>1029</v>
-      </c>
-      <c r="I10">
-        <v>986</v>
-      </c>
-      <c r="J10">
-        <v>932</v>
-      </c>
-      <c r="K10">
-        <v>1000</v>
-      </c>
-      <c r="L10">
-        <v>1043</v>
-      </c>
-      <c r="M10">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>176965</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>904</v>
-      </c>
-      <c r="D11">
-        <v>1007</v>
-      </c>
-      <c r="E11">
-        <v>949</v>
-      </c>
-      <c r="F11">
-        <v>1085</v>
-      </c>
-      <c r="G11">
-        <v>1264</v>
-      </c>
-      <c r="H11">
-        <v>1445</v>
-      </c>
-      <c r="I11">
-        <v>1407</v>
-      </c>
-      <c r="J11">
-        <v>1460</v>
-      </c>
-      <c r="K11">
-        <v>1505</v>
-      </c>
-      <c r="L11">
-        <v>1579</v>
-      </c>
-      <c r="M11">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>178396</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>3465</v>
-      </c>
-      <c r="D12">
-        <v>3316</v>
-      </c>
-      <c r="E12">
-        <v>3789</v>
-      </c>
-      <c r="F12">
-        <v>3771</v>
-      </c>
-      <c r="G12">
-        <v>3158</v>
-      </c>
-      <c r="H12">
-        <v>2739</v>
-      </c>
-      <c r="I12">
-        <v>3140</v>
-      </c>
-      <c r="J12">
-        <v>3722</v>
-      </c>
-      <c r="K12">
-        <v>3949</v>
-      </c>
-      <c r="L12">
-        <v>3795</v>
-      </c>
-      <c r="M12">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>178402</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="C13">
-        <v>805</v>
-      </c>
-      <c r="D13">
-        <v>808</v>
-      </c>
-      <c r="E13">
-        <v>749</v>
-      </c>
-      <c r="F13">
-        <v>805</v>
-      </c>
-      <c r="G13">
-        <v>830</v>
-      </c>
-      <c r="H13">
-        <v>907</v>
-      </c>
-      <c r="I13">
-        <v>887</v>
-      </c>
-      <c r="J13">
-        <v>761</v>
-      </c>
-      <c r="K13">
-        <v>773</v>
-      </c>
-      <c r="L13">
-        <v>771</v>
-      </c>
-      <c r="M13">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>178420</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
+      <c r="B14">
+        <v>351</v>
       </c>
       <c r="C14">
-        <v>351</v>
+        <v>229</v>
       </c>
       <c r="D14">
-        <v>229</v>
+        <v>349</v>
       </c>
       <c r="E14">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F14">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="G14">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="H14">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="I14">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="J14">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K14">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="L14">
-        <v>384</v>
-      </c>
-      <c r="M14">
         <v>442</v>
       </c>
     </row>

--- a/IPEDSData_Cleaned.xlsx
+++ b/IPEDSData_Cleaned.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meghaan\Projects\M.S.-Data-Analytics-Capstone-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432FEFB0-3FD9-480F-A979-CB7290483927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACED558-634B-43EE-9E9B-19649E81BB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPEDS Data 3-13-24" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,39 +24,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Institution Name</t>
-  </si>
-  <si>
-    <t>Number of first-time undergraduates - in-state (DRVEF2022)</t>
-  </si>
-  <si>
-    <t>Number of first-time undergraduates - in-state (DRVEF2021_RV)</t>
-  </si>
-  <si>
-    <t>Number of first-time undergraduates - in-state (DRVEF2020_RV)</t>
-  </si>
-  <si>
-    <t>Number of first-time undergraduates - in-state (DRVEF2019_RV)</t>
-  </si>
-  <si>
-    <t>Number of first-time undergraduates - in-state (DRVEF2018_RV)</t>
-  </si>
-  <si>
-    <t>Number of first-time undergraduates - in-state (DRVEF2017_RV)</t>
-  </si>
-  <si>
-    <t>Number of first-time undergraduates - in-state (DRVEF2016_RV)</t>
-  </si>
-  <si>
-    <t>Number of first-time undergraduates - in-state (DRVEF2015_RV)</t>
-  </si>
-  <si>
-    <t>Number of first-time undergraduates - in-state (DRVEF2014_RV)</t>
-  </si>
-  <si>
-    <t>Number of first-time undergraduates - in-state (DRVEF2013_RV)</t>
-  </si>
-  <si>
-    <t>Number of first-time undergraduates - in-state (DRVEF2012_RV)</t>
   </si>
   <si>
     <t>Harris-Stowe State University</t>
@@ -95,6 +63,39 @@
   </si>
   <si>
     <t>University of Missouri-St Louis</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2012</t>
   </si>
 </sst>
 </file>
@@ -638,6 +639,2430 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Enrollment Numbers</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of First-Time Freshmen</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Harris-Stowe State University</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7241-4B35-9EEE-CC6F07842900}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lincoln University</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7241-4B35-9EEE-CC6F07842900}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Missouri Southern State University</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7241-4B35-9EEE-CC6F07842900}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Missouri State University-Springfield</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2791</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2811</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2381</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7241-4B35-9EEE-CC6F07842900}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Missouri University of Science and Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7241-4B35-9EEE-CC6F07842900}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Missouri Western State University</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7241-4B35-9EEE-CC6F07842900}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Northwest Missouri State University</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7241-4B35-9EEE-CC6F07842900}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Southeast Missouri State University</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1289</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7241-4B35-9EEE-CC6F07842900}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Truman State University</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7241-4B35-9EEE-CC6F07842900}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>University of Central Missouri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1505</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1579</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7241-4B35-9EEE-CC6F07842900}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>University of Missouri-Columbia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3465</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3771</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7241-4B35-9EEE-CC6F07842900}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>University of Missouri-Kansas City</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-7241-4B35-9EEE-CC6F07842900}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>University of Missouri-St Louis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'IPEDS Data 3-13-24'!$B$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-7241-4B35-9EEE-CC6F07842900}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1999807695"/>
+        <c:axId val="2003427663"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1999807695"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2003427663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2003427663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1999807695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>98426</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80FB4ACA-BE8B-4E47-AAB3-513A8BD69BAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF34A15F-6BE7-4208-90E1-CBC65FC46382}" name="Table1" displayName="Table1" ref="A1:L14" totalsRowShown="0">
+  <autoFilter ref="A1:L14" xr:uid="{AF34A15F-6BE7-4208-90E1-CBC65FC46382}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{1C780519-9361-4116-88B5-C6DABAC8681C}" name="Institution Name"/>
+    <tableColumn id="2" xr3:uid="{9B69ADFF-2BE6-4ADD-B3D6-A98FAA164B47}" name="2022"/>
+    <tableColumn id="3" xr3:uid="{CCF5FD1F-B041-4AD8-A8A5-D9FBD6CC06DA}" name="2021"/>
+    <tableColumn id="4" xr3:uid="{443BA97F-DFA9-4030-8073-0A8BA37CD19D}" name="2020"/>
+    <tableColumn id="5" xr3:uid="{D5CB832C-7EE5-4F9F-9558-1AAFF3D71A36}" name="2019"/>
+    <tableColumn id="6" xr3:uid="{9D52C368-2AD4-4E55-B6FC-071B86412D2F}" name="2018"/>
+    <tableColumn id="7" xr3:uid="{EDC80D15-8C8A-4458-9C93-F5109C27F633}" name="2017"/>
+    <tableColumn id="8" xr3:uid="{F645733C-B2BA-4A21-A488-92D1709126CD}" name="2016"/>
+    <tableColumn id="9" xr3:uid="{CD0F99D0-F11D-4C47-A9CA-9A967BF28E23}" name="2015"/>
+    <tableColumn id="10" xr3:uid="{7AC12181-A4C5-4576-96D5-6DD82EC56753}" name="2014"/>
+    <tableColumn id="11" xr3:uid="{CBBF6CFA-970E-486D-8F91-531F986B9CF8}" name="2013"/>
+    <tableColumn id="12" xr3:uid="{7219740D-ECB1-43D2-ABA6-81509B6A59FD}" name="2012"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -937,8 +3362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -951,42 +3376,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>133</v>
@@ -1024,7 +3449,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>252</v>
@@ -1062,7 +3487,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>423</v>
@@ -1100,7 +3525,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1816</v>
@@ -1138,7 +3563,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>870</v>
@@ -1176,7 +3601,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>492</v>
@@ -1214,7 +3639,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>715</v>
@@ -1252,7 +3677,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1069</v>
@@ -1290,7 +3715,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>512</v>
@@ -1328,7 +3753,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>904</v>
@@ -1366,7 +3791,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>3465</v>
@@ -1404,7 +3829,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>805</v>
@@ -1442,7 +3867,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>351</v>
@@ -1480,5 +3905,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE175A9-F563-4861-8713-A715BE46BD43}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>